--- a/medicine/Pharmacie/Dose_létale_médiane/Dose_létale_médiane.xlsx
+++ b/medicine/Pharmacie/Dose_létale_médiane/Dose_létale_médiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dose létale médiane (DL50), ou concentration létale médiane (CL50), est un indicateur quantitatif de la toxicité d'une substance. Cette notion s'applique également aux irradiations.
 Cet indicateur mesure la dose de substance causant la mort de 50 % d'une population animale donnée (souvent des souris ou des rats) dans des conditions d'expérimentation précises. C'est la masse de substance nécessaire pour tuer 50 % des animaux dans un lot. Elle s'exprime en milligrammes de matière active par kilogramme d'animal.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Pourquoi 50 % ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la mesure où une dose toxique ne peut pas être négative, l'effet d'une dose est mathématiquement décrit comme une fonction non pas de la dose elle-même, mais du logarithme de cette dose : en tout point il est alors possible d'explorer les effets d'une dose « deux fois plus forte » ou « trois fois plus faible », sans que l'intervalle d'étude soit écrasé ou dispersé par un facteur d'échelle. D'une manière générale, la résistance à la toxicité dépend a priori d'un grand nombre de facteurs aléatoires ou indépendants, qui concourent multiplicativement à un effet global. Dans ce cas, des variations dans la résistance d'un organisme se manifestent par des variations dans le pourcentage de dose admissible, les pourcentages de variation autour de la valeur moyenne se composant multiplicativement. Et le théorème central limite signifie alors que la superposition de ces petits effets aléatoires tend à être une loi de Gauss, ce qui se traduit par une loi log-normale dans ces coordonnées logarithmiques.
 On peut donc s'attendre à rencontrer une telle loi log-normale gouvernant de très nombreux phénomènes biologiques. Dans ce cas, la courbe expérimentale de la fonction de répartition (le pourcentage de sujets présentant l'effet en fonction de la dose) tend à suivre une fonction de répartition régulière, qui apparaît comme une droite dans un diagramme de Weibull. Pour l'expérimentateur, le fait que ses points expérimentaux s'alignent dans un tel diagramme signifie que pour l'intervalle de dose étudié, la réponse des organismes est homogène ; et cette réponse peut être décrite de manière simple par la « droite expérimentale ».
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concept de dose létale 50 a été inventé par J.W. Trevan en 1927 et permet de classifier tous les produits par dangerosité à court et moyen termes.
-L'OCDE a fait de la DL50 un test officiel (ligne directrice pour les essais 401) en 1981. En 1987, elle a réduit à vingt au lieu de trente le nombre minimal d'animaux que doit contenir l'échantillon testé. En 2001, elle a approuvé trois nouvelles méthodes[1], destinées à remplacer la DL50 et à occasionner une moindre souffrance animale[2].
-Le 17 décembre 2002, la ligne directrice 401 a finalement été abrogée par l'OCDE[3].
+L'OCDE a fait de la DL50 un test officiel (ligne directrice pour les essais 401) en 1981. En 1987, elle a réduit à vingt au lieu de trente le nombre minimal d'animaux que doit contenir l'échantillon testé. En 2001, elle a approuvé trois nouvelles méthodes, destinées à remplacer la DL50 et à occasionner une moindre souffrance animale.
+Le 17 décembre 2002, la ligne directrice 401 a finalement été abrogée par l'OCDE.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,18 +601,20 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La DL50 s'exprime en unité de masse de substance par masse corporelle, c’est-à-dire en mg/kg.
 Exemple : une quantité de 3 200 mg d'un produit toxique ayant une DL50 de 40 mg/kg provoquerait théoriquement la mort de la moitié des humains pesant 80 kg.
 La DL50 permet de mesurer la toxicité d'une substance et d'établir des classes de toxicité.
 En général, plus la DL50 est petite, plus la substance est toxique. Le contraire est également vrai : plus la DL50 est élevée, plus la toxicité est faible.
 Voici, à titre indicatif, la DL50 de produits communs (testée sur le rat par voie orale) :
-eau : la DL50 de l'eau pour un rat est de 90 000 mg/kg[4] ;
+eau : la DL50 de l'eau pour un rat est de 90 000 mg/kg ;
 vitamine C : 11 900 mg/kg ;
-bisphénol A : 3 250 mg/kg[5] ;
+bisphénol A : 3 250 mg/kg ;
 sel de table : 3 000 mg/kg ;
-tétrahydrocannabinol (THC) : de 700 à 1 400 mg/kg[6],[7] ;
+tétrahydrocannabinol (THC) : de 700 à 1 400 mg/kg, ;
 caféine : 192 mg/kg ;
 nicotine : 50 mg/kg ;
 digitaline : de 5 à 10 mg/kg ;
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>Échelle des poisons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fourchette de valeurs DL50 est très grande. La toxine botulique, en tant que substance la plus toxique connue, a une valeur DL50 de 1 ng/kg, tandis que la substance la moins toxique, l'eau, a une valeur DL50 de plus de 90 g/kg. C'est une différence d'environ un sur cent milliards, soit onze ordres de grandeur. Comme pour toutes les valeurs mesurées qui diffèrent de plusieurs ordres de grandeur, une représentation logarithmique est conseillée. Des exemples bien connus sont l'indication de la force du tremblement de terre à l'aide de l'échelle de Richter, la valeur du pH comme mesure du caractère acide ou basique d'une solution aqueuse ou de l'intensité sonore en décibels. Dans ce cas, on considère le logarithme décimal négatif des valeurs de DL50, qui est normalisé en kg/kg de poids corporel :
         −
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,7 +691,9 @@
           <t>DL50 et radio-exposition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exposition à un flux de rayonnements ionisants à dose importante provoque un effet toxique. Une dose de 4 Gray sur un adulte correspond à la DL50.
 </t>
@@ -684,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,7 +724,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On administre généralement la substance toxique à des animaux répartis en plusieurs groupes, et ce, à des doses croissantes suffisantes pour obtenir un pourcentage de mortalité s'échelonnant entre 0 et 100 %.
 L'effet d'une substance est globalement inversement proportionnel à la masse de l'animal à qui elle est administrée, c'est pourquoi la dose létale 50 est mesurée en mg/kg.
@@ -717,7 +741,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -737,14 +761,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identification de la toxicité
-Elle sert à mesurer toute la toxicité d'une substance, mesures qui s'effectuent via des études qualitatives (non mesurables) et quantitatives (mesurables dont la DL50).
+          <t>Identification de la toxicité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle sert à mesurer toute la toxicité d'une substance, mesures qui s'effectuent via des études qualitatives (non mesurables) et quantitatives (mesurables dont la DL50).
 La DL50 sert souvent de départ aux études de toxicité car elle fournit un minimum de connaissances en identifiant les symptômes de l'intoxication et la dose toxique.
 Il faut malgré tout la considérer avec prudence car c'est souvent une étude préliminaire (première analyse) qui peut être influencée par plusieurs facteurs, tels l'espèce animale, le sexe, l'âge, le moment de la journée, etc. Il est possible de mesurer un certain nombre de paramètres biologiques (tension artérielle, glycémie, indices de stress, etc.) chez chacun des sujets testés pour comparer après coup (post hoc) le groupe des sujets sensibles et le groupe des sujets résistants; on a ainsi une idée des facteurs de résistance à la toxicité du produit considéré.
 La DL50 a cependant une valeur limitée, car elle ne concerne que la mortalité, d'où l'apparition de valeurs comme l'IC50.
 Il existe d'autres méthodes d'étude de la toxicité, par exemple les tests d'irritation de la peau et de corrosion des yeux, qui font généralement partie d'un programme d'évaluation toxicologique.
-Identification du pouvoir pathogène
-La DL50 est une des deux données servant à mesurer le pouvoir pathogène d'un germe. La seconde donnée étant la Dose Minimale Infectante (DMI).
 </t>
         </is>
       </c>
@@ -755,7 +782,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dose_l%C3%A9tale_m%C3%A9diane</t>
+          <t>Dose_létale_médiane</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -770,10 +797,49 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Identification du pouvoir pathogène</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La DL50 est une des deux données servant à mesurer le pouvoir pathogène d'un germe. La seconde donnée étant la Dose Minimale Infectante (DMI).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dose_létale_médiane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dose_l%C3%A9tale_m%C3%A9diane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Notions voisines</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>S'il s'agit d'une substance inhalée, on parle de concentration létale 50 (CL50 ou CLt50) pour exprimer la concentration du toxique dans l'air inspiré et causant la mort de 50 % des animaux. La CL50 est exprimée en mg min m−3.
 Sur le même modèle, on parle aussi de l'IC50 (ou (ICt50), qui mesure la dose dite semi-incapacitante, à laquelle 50 % de la population exposée est paralysée ou assommée.
